--- a/data/comuni_cratere.xlsx
+++ b/data/comuni_cratere.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanolaptop/Documents/RStudio/marche_health/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariagraziacicala/Desktop/marche_health/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{719E6418-43AD-1747-87CE-EA6DC3356AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C6CD6D5-E8DE-EC4C-BF16-6861F9419172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{6D4DA05B-FA8D-3F4E-BE63-3F1780D2C46F}"/>
+    <workbookView xWindow="13240" yWindow="980" windowWidth="14580" windowHeight="15220" xr2:uid="{8633366A-3FF3-D345-A1C4-F5A44DF5DA0F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
-  <si>
-    <t>Acquacanina</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>nom_comune</t>
   </si>
   <si>
     <t>Acquasanta Terme</t>
@@ -92,7 +92,7 @@
     <t>Castorano</t>
   </si>
   <si>
-    <t>Cerreto d’Esi</t>
+    <t>Cerreto d'Esi</t>
   </si>
   <si>
     <t>Cessapalombo</t>
@@ -128,9 +128,6 @@
     <t>Fiastra</t>
   </si>
   <si>
-    <t>Fiordimonte</t>
-  </si>
-  <si>
     <t>Fiuminata</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>Loro Piceno</t>
   </si>
   <si>
-    <t>Macerata;</t>
-  </si>
-  <si>
     <t>Maltignano</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Mogliano</t>
   </si>
   <si>
-    <t>Monsapietro Morico</t>
-  </si>
-  <si>
     <t>Montalto delle Marche</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>Monte Vidon Corrado</t>
   </si>
   <si>
-    <t>Montecavallo</t>
-  </si>
-  <si>
     <t>Montedinove</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>Montegiorgio</t>
   </si>
   <si>
-    <t>Monteleone</t>
-  </si>
-  <si>
     <t>Montelparo</t>
   </si>
   <si>
@@ -230,9 +215,6 @@
     <t>Pieve Torina</t>
   </si>
   <si>
-    <t>Pievebovigliana</t>
-  </si>
-  <si>
     <t>Pioraco</t>
   </si>
   <si>
@@ -272,9 +254,6 @@
     <t>Serrapetrona</t>
   </si>
   <si>
-    <t>Serravalle del Chienti</t>
-  </si>
-  <si>
     <t>Servigliano</t>
   </si>
   <si>
@@ -299,7 +278,22 @@
     <t>Visso</t>
   </si>
   <si>
-    <t>nom_comune</t>
+    <t>Valfornace</t>
+  </si>
+  <si>
+    <t>Macerata</t>
+  </si>
+  <si>
+    <t>Monsampietro Morico</t>
+  </si>
+  <si>
+    <t>Monte Cavallo</t>
+  </si>
+  <si>
+    <t>Monteleone di Fermo</t>
+  </si>
+  <si>
+    <t>Serravalle di Chienti</t>
   </si>
 </sst>
 </file>
@@ -342,7 +336,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -653,168 +647,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865BCA5C-DC78-8A45-97F1-9CA88D7E3A96}">
-  <dimension ref="A1:A88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E42CB4-2331-4A47-951E-2FCE0002CE3B}">
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
@@ -849,257 +846,247 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
